--- a/F19_densidad_follaje.xlsx
+++ b/F19_densidad_follaje.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="follajeComuna" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="142">
   <si>
     <t>barrio</t>
   </si>
@@ -442,6 +442,12 @@
   </si>
   <si>
     <t>Arbutos</t>
+  </si>
+  <si>
+    <t>corredor</t>
+  </si>
+  <si>
+    <t>institucion</t>
   </si>
 </sst>
 </file>
@@ -761,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q30" activeCellId="2" sqref="C35:E35 J34:L34 Q30:S30"/>
     </sheetView>
   </sheetViews>
@@ -3500,7 +3506,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -3512,7 +3518,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
@@ -3524,7 +3530,7 @@
         <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="Q2" t="s">
         <v>1</v>
@@ -3970,7 +3976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q8" activeCellId="2" sqref="C9:E9 J8:L8 Q8:S8"/>
     </sheetView>
   </sheetViews>
@@ -4006,7 +4012,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -4018,7 +4024,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>
@@ -4030,7 +4036,7 @@
         <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="Q2" t="s">
         <v>1</v>
